--- a/article_6_tanzania_sri_lanka_peru/transformations/templates/calibrated/united_republic_of_tanzania/model_input_variables_united_republic_of_tanzania_se_calibrated.xlsx
+++ b/article_6_tanzania_sri_lanka_peru/transformations/templates/calibrated/united_republic_of_tanzania/model_input_variables_united_republic_of_tanzania_se_calibrated.xlsx
@@ -594,112 +594,112 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>88.1824161</v>
+        <v>47.41391982</v>
       </c>
       <c r="K2">
-        <v>94.00835768</v>
+        <v>49.77440937</v>
       </c>
       <c r="L2">
-        <v>99.83429925999999</v>
+        <v>53.27488453</v>
       </c>
       <c r="M2">
-        <v>105.66024084</v>
+        <v>57.03343688919741</v>
       </c>
       <c r="N2">
-        <v>111.48618242</v>
+        <v>61.13156901037621</v>
       </c>
       <c r="O2">
-        <v>117.312124</v>
+        <v>64.43568065268151</v>
       </c>
       <c r="P2">
-        <v>124.86142494</v>
+        <v>67.54041373905439</v>
       </c>
       <c r="Q2">
-        <v>132.41072588</v>
+        <v>70.78205234958706</v>
       </c>
       <c r="R2">
-        <v>139.96002682</v>
+        <v>74.53350127977443</v>
       </c>
       <c r="S2">
-        <v>147.50932776</v>
+        <v>78.63284378575129</v>
       </c>
       <c r="T2">
-        <v>155.0586287</v>
+        <v>82.95765011613798</v>
       </c>
       <c r="U2">
-        <v>166.64394516</v>
+        <v>87.83141238184376</v>
       </c>
       <c r="V2">
-        <v>178.22926162</v>
+        <v>92.99150767678005</v>
       </c>
       <c r="W2">
-        <v>189.81457808</v>
+        <v>98.45475847099397</v>
       </c>
       <c r="X2">
-        <v>201.39989454</v>
+        <v>104.2389759390994</v>
       </c>
       <c r="Y2">
-        <v>212.985211</v>
+        <v>110.3630157829019</v>
       </c>
       <c r="Z2">
-        <v>228.09563978</v>
+        <v>116.8468426421195</v>
       </c>
       <c r="AA2">
-        <v>243.20606856</v>
+        <v>124.1497704414409</v>
       </c>
       <c r="AB2">
-        <v>258.31649734</v>
+        <v>131.9091308592002</v>
       </c>
       <c r="AC2">
-        <v>273.42692612</v>
+        <v>140.1534519404672</v>
       </c>
       <c r="AD2">
-        <v>288.5373549</v>
+        <v>148.9130426867465</v>
       </c>
       <c r="AE2">
-        <v>308.29221242</v>
+        <v>158.2201079217626</v>
       </c>
       <c r="AF2">
-        <v>328.04706994</v>
+        <v>168.1088642307585</v>
       </c>
       <c r="AG2">
-        <v>347.80192746</v>
+        <v>178.615668245181</v>
       </c>
       <c r="AH2">
-        <v>367.55678498</v>
+        <v>189.7791476111465</v>
       </c>
       <c r="AI2">
-        <v>387.3116425</v>
+        <v>201.6403443032959</v>
       </c>
       <c r="AJ2">
-        <v>412.88126376</v>
+        <v>214.2428659899882</v>
       </c>
       <c r="AK2">
-        <v>438.45088502</v>
+        <v>227.6330449130789</v>
       </c>
       <c r="AL2">
-        <v>464.02050628</v>
+        <v>241.8601107233551</v>
       </c>
       <c r="AM2">
-        <v>489.59012754</v>
+        <v>256.9763676100175</v>
       </c>
       <c r="AN2">
-        <v>515.1597488</v>
+        <v>273.0373902166239</v>
       </c>
       <c r="AO2">
-        <v>547.81264086</v>
+        <v>290.1022270716156</v>
       </c>
       <c r="AP2">
-        <v>580.46553292</v>
+        <v>308.2336163642333</v>
       </c>
       <c r="AQ2">
-        <v>613.11842498</v>
+        <v>327.4982172863562</v>
       </c>
       <c r="AR2">
-        <v>645.77131704</v>
+        <v>347.9668558667535</v>
       </c>
       <c r="AS2">
-        <v>678.4242091</v>
+        <v>369.7147847609926</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -716,112 +716,112 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>94730000</v>
+        <v>86610000</v>
       </c>
       <c r="K3">
-        <v>94730000</v>
+        <v>86610000</v>
       </c>
       <c r="L3">
-        <v>94730000</v>
+        <v>86610000</v>
       </c>
       <c r="M3">
-        <v>94730000</v>
+        <v>86610000</v>
       </c>
       <c r="N3">
-        <v>94730000</v>
+        <v>86610000</v>
       </c>
       <c r="O3">
-        <v>94730000</v>
+        <v>86610000</v>
       </c>
       <c r="P3">
-        <v>94730000</v>
+        <v>86610000</v>
       </c>
       <c r="Q3">
-        <v>94730000</v>
+        <v>86610000</v>
       </c>
       <c r="R3">
-        <v>94730000</v>
+        <v>86610000</v>
       </c>
       <c r="S3">
-        <v>94730000</v>
+        <v>86610000</v>
       </c>
       <c r="T3">
-        <v>94730000</v>
+        <v>86610000</v>
       </c>
       <c r="U3">
-        <v>94730000</v>
+        <v>86610000</v>
       </c>
       <c r="V3">
-        <v>94730000</v>
+        <v>86610000</v>
       </c>
       <c r="W3">
-        <v>94730000</v>
+        <v>86610000</v>
       </c>
       <c r="X3">
-        <v>94730000</v>
+        <v>86610000</v>
       </c>
       <c r="Y3">
-        <v>94730000</v>
+        <v>86610000</v>
       </c>
       <c r="Z3">
-        <v>94730000</v>
+        <v>86610000</v>
       </c>
       <c r="AA3">
-        <v>94730000</v>
+        <v>86610000</v>
       </c>
       <c r="AB3">
-        <v>94730000</v>
+        <v>86610000</v>
       </c>
       <c r="AC3">
-        <v>94730000</v>
+        <v>86610000</v>
       </c>
       <c r="AD3">
-        <v>94730000</v>
+        <v>86610000</v>
       </c>
       <c r="AE3">
-        <v>94730000</v>
+        <v>86610000</v>
       </c>
       <c r="AF3">
-        <v>94730000</v>
+        <v>86610000</v>
       </c>
       <c r="AG3">
-        <v>94730000</v>
+        <v>86610000</v>
       </c>
       <c r="AH3">
-        <v>94730000</v>
+        <v>86610000</v>
       </c>
       <c r="AI3">
-        <v>94730000</v>
+        <v>86610000</v>
       </c>
       <c r="AJ3">
-        <v>94730000</v>
+        <v>86610000</v>
       </c>
       <c r="AK3">
-        <v>94730000</v>
+        <v>86610000</v>
       </c>
       <c r="AL3">
-        <v>94730000</v>
+        <v>86610000</v>
       </c>
       <c r="AM3">
-        <v>94730000</v>
+        <v>86610000</v>
       </c>
       <c r="AN3">
-        <v>94730000</v>
+        <v>86610000</v>
       </c>
       <c r="AO3">
-        <v>94730000</v>
+        <v>86610000</v>
       </c>
       <c r="AP3">
-        <v>94730000</v>
+        <v>86610000</v>
       </c>
       <c r="AQ3">
-        <v>94730000</v>
+        <v>86610000</v>
       </c>
       <c r="AR3">
-        <v>94730000</v>
+        <v>86610000</v>
       </c>
       <c r="AS3">
-        <v>94730000</v>
+        <v>86610000</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -1573,112 +1573,112 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>4.181218872870249</v>
+        <v>3.919</v>
       </c>
       <c r="K10">
-        <v>4.181218872870249</v>
+        <v>3.919</v>
       </c>
       <c r="L10">
-        <v>4.181218872870249</v>
+        <v>3.919</v>
       </c>
       <c r="M10">
-        <v>4.181218872870249</v>
+        <v>3.919</v>
       </c>
       <c r="N10">
-        <v>4.181218872870249</v>
+        <v>3.919</v>
       </c>
       <c r="O10">
-        <v>4.181218872870249</v>
+        <v>3.919</v>
       </c>
       <c r="P10">
-        <v>4.181218872870249</v>
+        <v>3.919</v>
       </c>
       <c r="Q10">
-        <v>4.181218872870249</v>
+        <v>3.919</v>
       </c>
       <c r="R10">
-        <v>4.181218872870249</v>
+        <v>3.919</v>
       </c>
       <c r="S10">
-        <v>4.181218872870249</v>
+        <v>3.919</v>
       </c>
       <c r="T10">
-        <v>4.181218872870249</v>
+        <v>3.919</v>
       </c>
       <c r="U10">
-        <v>4.181218872870249</v>
+        <v>3.919</v>
       </c>
       <c r="V10">
-        <v>4.181218872870249</v>
+        <v>3.919</v>
       </c>
       <c r="W10">
-        <v>4.181218872870249</v>
+        <v>3.919</v>
       </c>
       <c r="X10">
-        <v>4.181218872870249</v>
+        <v>3.919</v>
       </c>
       <c r="Y10">
-        <v>4.181218872870249</v>
+        <v>3.919</v>
       </c>
       <c r="Z10">
-        <v>4.181218872870249</v>
+        <v>3.919</v>
       </c>
       <c r="AA10">
-        <v>4.181218872870249</v>
+        <v>3.919</v>
       </c>
       <c r="AB10">
-        <v>4.181218872870249</v>
+        <v>3.919</v>
       </c>
       <c r="AC10">
-        <v>4.181218872870249</v>
+        <v>3.919</v>
       </c>
       <c r="AD10">
-        <v>4.181218872870249</v>
+        <v>3.919</v>
       </c>
       <c r="AE10">
-        <v>4.181218872870249</v>
+        <v>3.919</v>
       </c>
       <c r="AF10">
-        <v>4.181218872870249</v>
+        <v>3.919</v>
       </c>
       <c r="AG10">
-        <v>4.181218872870249</v>
+        <v>3.919</v>
       </c>
       <c r="AH10">
-        <v>4.181218872870249</v>
+        <v>3.919</v>
       </c>
       <c r="AI10">
-        <v>4.181218872870249</v>
+        <v>3.919</v>
       </c>
       <c r="AJ10">
-        <v>4.181218872870249</v>
+        <v>3.919</v>
       </c>
       <c r="AK10">
-        <v>4.181218872870249</v>
+        <v>3.919</v>
       </c>
       <c r="AL10">
-        <v>4.181218872870249</v>
+        <v>3.919</v>
       </c>
       <c r="AM10">
-        <v>4.181218872870249</v>
+        <v>3.919</v>
       </c>
       <c r="AN10">
-        <v>4.181218872870249</v>
+        <v>3.919</v>
       </c>
       <c r="AO10">
-        <v>4.181218872870249</v>
+        <v>3.919</v>
       </c>
       <c r="AP10">
-        <v>4.181218872870249</v>
+        <v>3.919</v>
       </c>
       <c r="AQ10">
-        <v>4.181218872870249</v>
+        <v>3.919</v>
       </c>
       <c r="AR10">
-        <v>4.181218872870249</v>
+        <v>3.919</v>
       </c>
       <c r="AS10">
-        <v>4.181218872870249</v>
+        <v>3.919</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -1695,112 +1695,112 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>35205372.34354</v>
+        <v>35930358.65</v>
       </c>
       <c r="K11">
-        <v>35896823.14077</v>
+        <v>36812067.36</v>
       </c>
       <c r="L11">
-        <v>36593461.16715</v>
+        <v>37669089.91</v>
       </c>
       <c r="M11">
-        <v>37293015.15456</v>
+        <v>38469814.97</v>
       </c>
       <c r="N11">
-        <v>37993576.955</v>
+        <v>39216539.25</v>
       </c>
       <c r="O11">
-        <v>38691641.78649</v>
+        <v>39967867.44</v>
       </c>
       <c r="P11">
-        <v>38270246.9594093</v>
+        <v>40725784.39</v>
       </c>
       <c r="Q11">
-        <v>38737623.1084837</v>
+        <v>41471864.08</v>
       </c>
       <c r="R11">
-        <v>39204999.25755821</v>
+        <v>42210184.93</v>
       </c>
       <c r="S11">
-        <v>39672375.4066326</v>
+        <v>42945415.32</v>
       </c>
       <c r="T11">
-        <v>40139751.555707</v>
+        <v>43669534.48</v>
       </c>
       <c r="U11">
-        <v>40526905.6918001</v>
+        <v>44382344.6</v>
       </c>
       <c r="V11">
-        <v>40914059.8278932</v>
+        <v>45084671.91</v>
       </c>
       <c r="W11">
-        <v>41301213.9639864</v>
+        <v>45777069.76</v>
       </c>
       <c r="X11">
-        <v>41688368.1000795</v>
+        <v>46458023.83</v>
       </c>
       <c r="Y11">
-        <v>42075522.2361726</v>
+        <v>47127449.01</v>
       </c>
       <c r="Z11">
-        <v>42367434.5573523</v>
+        <v>47788606.49</v>
       </c>
       <c r="AA11">
-        <v>42659346.8785319</v>
+        <v>48441965.2</v>
       </c>
       <c r="AB11">
-        <v>42951259.1997115</v>
+        <v>49086670.5</v>
       </c>
       <c r="AC11">
-        <v>43243171.5208912</v>
+        <v>49727259.72</v>
       </c>
       <c r="AD11">
-        <v>43535083.8420708</v>
+        <v>50359967.09</v>
       </c>
       <c r="AE11">
-        <v>43719587.926263</v>
+        <v>50982558.35</v>
       </c>
       <c r="AF11">
-        <v>43904092.0104552</v>
+        <v>51597751.77</v>
       </c>
       <c r="AG11">
-        <v>44088596.0946475</v>
+        <v>52206777.06</v>
       </c>
       <c r="AH11">
-        <v>44273100.17883971</v>
+        <v>52812186.15</v>
       </c>
       <c r="AI11">
-        <v>44457604.2630319</v>
+        <v>53394079.62</v>
       </c>
       <c r="AJ11">
-        <v>44506524.2912419</v>
+        <v>53950829.14</v>
       </c>
       <c r="AK11">
-        <v>44555444.3194519</v>
+        <v>54486246.79</v>
       </c>
       <c r="AL11">
-        <v>44604364.3476619</v>
+        <v>55001544.1</v>
       </c>
       <c r="AM11">
-        <v>44653284.3758719</v>
+        <v>55494147.17</v>
       </c>
       <c r="AN11">
-        <v>44702204.4040819</v>
+        <v>55959041.35</v>
       </c>
       <c r="AO11">
-        <v>44617976.8769205</v>
+        <v>56402164.38</v>
       </c>
       <c r="AP11">
-        <v>44533749.3497591</v>
+        <v>56817570.33</v>
       </c>
       <c r="AQ11">
-        <v>44449521.82259779</v>
+        <v>57205024.46</v>
       </c>
       <c r="AR11">
-        <v>44365294.2954364</v>
+        <v>57567278.61</v>
       </c>
       <c r="AS11">
-        <v>44281066.768275</v>
+        <v>57906580.52</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -1817,112 +1817,112 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>16277265.65646</v>
+        <v>16612464.35</v>
       </c>
       <c r="K12">
-        <v>17152407.85923</v>
+        <v>17589734.64</v>
       </c>
       <c r="L12">
-        <v>18066883.83285</v>
+        <v>18597942.09</v>
       </c>
       <c r="M12">
-        <v>19020428.84544</v>
+        <v>19620628.03</v>
       </c>
       <c r="N12">
-        <v>20011884.045</v>
+        <v>20656039.76</v>
       </c>
       <c r="O12">
-        <v>21042571.21351</v>
+        <v>21736650.56</v>
       </c>
       <c r="P12">
-        <v>21538055.5965907</v>
+        <v>22862549.61</v>
       </c>
       <c r="Q12">
-        <v>22516900.8735163</v>
+        <v>24025883.92</v>
       </c>
       <c r="R12">
-        <v>23495746.1504418</v>
+        <v>25227921.07</v>
       </c>
       <c r="S12">
-        <v>24474591.4273674</v>
+        <v>26473657.68</v>
       </c>
       <c r="T12">
-        <v>25453436.704293</v>
+        <v>27758275.52</v>
       </c>
       <c r="U12">
-        <v>26552890.6721999</v>
+        <v>29080114.4</v>
       </c>
       <c r="V12">
-        <v>27652344.6401068</v>
+        <v>30441632.09</v>
       </c>
       <c r="W12">
-        <v>28751798.6080136</v>
+        <v>31842758.24</v>
       </c>
       <c r="X12">
-        <v>29851252.5759205</v>
+        <v>33281813.17</v>
       </c>
       <c r="Y12">
-        <v>30950706.5438274</v>
+        <v>34757854.99</v>
       </c>
       <c r="Z12">
-        <v>32166016.8106478</v>
+        <v>36273745.51</v>
       </c>
       <c r="AA12">
-        <v>33381327.0774681</v>
+        <v>37828920.8</v>
       </c>
       <c r="AB12">
-        <v>34596637.3442885</v>
+        <v>39423166.5</v>
       </c>
       <c r="AC12">
-        <v>35811947.61110879</v>
+        <v>41057331.28</v>
       </c>
       <c r="AD12">
-        <v>37027257.8779292</v>
+        <v>42728568.91</v>
       </c>
       <c r="AE12">
-        <v>38350865.407737</v>
+        <v>44431433.65</v>
       </c>
       <c r="AF12">
-        <v>39674472.9375448</v>
+        <v>46167850.23</v>
       </c>
       <c r="AG12">
-        <v>40998080.4673525</v>
+        <v>47934739.94</v>
       </c>
       <c r="AH12">
-        <v>42321687.99716029</v>
+        <v>49727783.85</v>
       </c>
       <c r="AI12">
-        <v>43645295.52696811</v>
+        <v>51563617.38</v>
       </c>
       <c r="AJ12">
-        <v>45045481.5267581</v>
+        <v>53437512.86</v>
       </c>
       <c r="AK12">
-        <v>46445667.5265481</v>
+        <v>55349556.21</v>
       </c>
       <c r="AL12">
-        <v>47845853.52633811</v>
+        <v>57306096.9</v>
       </c>
       <c r="AM12">
-        <v>49246039.5261281</v>
+        <v>59300745.83</v>
       </c>
       <c r="AN12">
-        <v>50646225.5259181</v>
+        <v>61330921.65</v>
       </c>
       <c r="AO12">
-        <v>52111554.1670795</v>
+        <v>63398524.62</v>
       </c>
       <c r="AP12">
-        <v>53576882.8082409</v>
+        <v>65502279.68</v>
       </c>
       <c r="AQ12">
-        <v>55042211.4494022</v>
+        <v>67639532.54000001</v>
       </c>
       <c r="AR12">
-        <v>56507540.0905636</v>
+        <v>69813684.39</v>
       </c>
       <c r="AS12">
-        <v>57972868.731725</v>
+        <v>72024939.48</v>
       </c>
     </row>
   </sheetData>
